--- a/BASE+DE+DADOS+-+fazendo+referência+a+outra+planilha.xlsx
+++ b/BASE+DE+DADOS+-+fazendo+referência+a+outra+planilha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documentos\GitHub\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbb0bfc3935069fc/Documentos/GitHub/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA91E0-D9F9-4FB1-8020-25827FA75715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{84EA91E0-D9F9-4FB1-8020-25827FA75715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E37687B-FF2C-45AE-920E-E64DB15FA4C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banco de Dados" sheetId="1" r:id="rId1"/>
@@ -309,8 +309,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -410,9 +410,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,7 +422,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,10 +435,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -756,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1025,7 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F13" s="5">
         <v>1088</v>
@@ -1043,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F14" s="5">
         <v>47.499999962747097</v>
@@ -1063,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F15" s="5">
         <v>2462.3999980688095</v>
@@ -1083,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F16" s="5">
         <v>604.79999999999995</v>
@@ -1103,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F17" s="5">
         <v>200</v>
@@ -1123,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F18" s="5">
         <v>640</v>
@@ -1143,7 +1145,7 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F19" s="5">
         <v>45.899999678134918</v>
@@ -1163,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F20" s="5">
         <v>168</v>
@@ -1183,7 +1185,7 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F21" s="5">
         <v>342.71999759674071</v>
@@ -1203,7 +1205,7 @@
         <v>29</v>
       </c>
       <c r="E22">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F22" s="5">
         <v>304</v>
@@ -1223,7 +1225,7 @@
         <v>29</v>
       </c>
       <c r="E23">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F23" s="5">
         <v>380</v>
@@ -1243,7 +1245,7 @@
         <v>29</v>
       </c>
       <c r="E24">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F24" s="5">
         <v>486.5</v>
@@ -1263,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F25" s="5">
         <v>1320</v>
@@ -1283,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F26" s="5">
         <v>124.8</v>
@@ -1303,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="E27">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="5">
         <v>393</v>
@@ -1323,7 +1325,7 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F28" s="5">
         <v>86.4</v>
@@ -1343,7 +1345,7 @@
         <v>32</v>
       </c>
       <c r="E29">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F29" s="5">
         <v>156</v>
@@ -1363,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="E30">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F30" s="5">
         <v>877.5</v>
@@ -1383,7 +1385,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F31" s="5">
         <v>607.9999977350235</v>
@@ -1403,7 +1405,7 @@
         <v>32</v>
       </c>
       <c r="E32">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F32" s="5">
         <v>883.99999670684338</v>
@@ -1423,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F33" s="5">
         <v>122.87999954223633</v>
@@ -1443,7 +1445,7 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F34" s="5">
         <v>20.8</v>
@@ -1463,7 +1465,7 @@
         <v>32</v>
       </c>
       <c r="E35">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F35" s="5">
         <v>80</v>
@@ -1483,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F36" s="5">
         <v>92.4</v>
@@ -1503,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F37" s="5">
         <v>189</v>
@@ -1523,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="E38">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F38" s="5">
         <v>780</v>
@@ -1543,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F39" s="5">
         <v>443.25</v>
@@ -1563,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F40" s="5">
         <v>160</v>
@@ -1583,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F41" s="5">
         <v>288</v>
@@ -1603,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F42" s="5">
         <v>163.19999939203262</v>
@@ -1623,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F43" s="5">
         <v>60.8</v>
@@ -1643,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F44" s="5">
         <v>360</v>
@@ -1663,7 +1665,7 @@
         <v>32</v>
       </c>
       <c r="E45">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F45" s="5">
         <v>100.8</v>
@@ -1683,7 +1685,7 @@
         <v>32</v>
       </c>
       <c r="E46">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F46" s="5">
         <v>216</v>
@@ -1703,7 +1705,7 @@
         <v>32</v>
       </c>
       <c r="E47">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F47" s="5">
         <v>931.5</v>
@@ -1723,7 +1725,7 @@
         <v>32</v>
       </c>
       <c r="E48">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F48" s="5">
         <v>625.5</v>
@@ -1743,7 +1745,7 @@
         <v>29</v>
       </c>
       <c r="E49">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F49" s="5">
         <v>532</v>
@@ -1763,7 +1765,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F50" s="5">
         <v>163.62499885261059</v>
@@ -1783,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F51" s="5">
         <v>936</v>
@@ -1803,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="E52">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F52" s="5">
         <v>240</v>
@@ -1823,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F53" s="5">
         <v>346.5599997282028</v>
@@ -1843,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F54" s="5">
         <v>735</v>
@@ -1863,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F55" s="5">
         <v>183.59999871253967</v>
@@ -1883,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F56" s="5">
         <v>2617.9999816417694</v>
@@ -1903,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F57" s="5">
         <v>111.2</v>
@@ -1923,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="E58">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F58" s="5">
         <v>990</v>
@@ -1943,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="E59">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F59" s="5">
         <v>113.99999991059303</v>
@@ -1963,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F60" s="5">
         <v>528.19999958574772</v>
@@ -1983,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="E61">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F61" s="5">
         <v>456</v>
@@ -2003,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="E62">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F62" s="5">
         <v>920</v>
@@ -2023,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F63" s="5">
         <v>48</v>
@@ -2043,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F64" s="5">
         <v>400</v>
@@ -2063,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F65" s="5">
         <v>667.2</v>
@@ -2083,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F66" s="5">
         <v>388.8</v>
@@ -2103,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F67" s="5">
         <v>837.89999934285879</v>
@@ -2123,7 +2125,7 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F68" s="5">
         <v>40</v>
@@ -2143,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F69" s="5">
         <v>142.49999988824129</v>
@@ -2163,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="E70">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F70" s="5">
         <v>565.43999955654147</v>
@@ -2183,7 +2185,7 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F71" s="5">
         <v>451.43999964594843</v>
@@ -2203,7 +2205,7 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F72" s="5">
         <v>344</v>
@@ -2223,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F73" s="5">
         <v>194.6</v>
@@ -2243,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F74" s="5">
         <v>41.039999967813493</v>
@@ -2263,7 +2265,7 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F75" s="5">
         <v>250.79999980330467</v>
@@ -2283,7 +2285,7 @@
         <v>32</v>
       </c>
       <c r="E76">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F76" s="5">
         <v>372</v>
@@ -2303,7 +2305,7 @@
         <v>32</v>
       </c>
       <c r="E77">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F77" s="5">
         <v>48</v>
@@ -2323,7 +2325,7 @@
         <v>32</v>
       </c>
       <c r="E78">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F78" s="5">
         <v>728</v>
@@ -2343,7 +2345,7 @@
         <v>32</v>
       </c>
       <c r="E79">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F79" s="5">
         <v>472.8</v>
@@ -2363,7 +2365,7 @@
         <v>32</v>
       </c>
       <c r="E80">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F80" s="5">
         <v>248</v>
@@ -2383,7 +2385,7 @@
         <v>32</v>
       </c>
       <c r="E81">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F81" s="5">
         <v>660</v>
@@ -2403,7 +2405,7 @@
         <v>32</v>
       </c>
       <c r="E82">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F82" s="5">
         <v>300</v>
@@ -2423,7 +2425,7 @@
         <v>32</v>
       </c>
       <c r="E83">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F83" s="5">
         <v>280.8</v>
@@ -2443,7 +2445,7 @@
         <v>32</v>
       </c>
       <c r="E84">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F84" s="5">
         <v>351</v>
@@ -2463,7 +2465,7 @@
         <v>32</v>
       </c>
       <c r="E85">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F85" s="5">
         <v>43.2</v>
@@ -2483,7 +2485,7 @@
         <v>32</v>
       </c>
       <c r="E86">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F86" s="5">
         <v>384</v>
@@ -2503,7 +2505,7 @@
         <v>32</v>
       </c>
       <c r="E87">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F87" s="5">
         <v>186</v>
@@ -2523,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="E88">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F88" s="5">
         <v>21.6</v>
@@ -2543,7 +2545,7 @@
         <v>8</v>
       </c>
       <c r="E89">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F89" s="5">
         <v>57.6</v>
@@ -2563,7 +2565,7 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F90" s="5">
         <v>7.3</v>
@@ -2583,7 +2585,7 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F91" s="5">
         <v>124.2</v>
@@ -2603,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F92" s="5">
         <v>31.2</v>
@@ -2623,7 +2625,7 @@
         <v>8</v>
       </c>
       <c r="E93">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F93" s="5">
         <v>952</v>
@@ -2643,7 +2645,7 @@
         <v>8</v>
       </c>
       <c r="E94">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F94" s="5">
         <v>248</v>
@@ -2661,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2956,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f>SUMIFS(VendasGerais[Vendas],VendasGerais[Produto],A2,VendasGerais[Vendedor],B2,VendasGerais[Cidade],C2)</f>
         <v>1535.4999999627471</v>
       </c>
@@ -2983,7 +2985,7 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>AVERAGEIFS(VendasGerais[Vendas],VendasGerais[Produto],A6,VendasGerais[Vendedor],B6,VendasGerais[Cidade],C6)</f>
         <v>511.8333333209157</v>
       </c>
@@ -3082,11 +3084,11 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="I13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3118,9 +3120,18 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="13">
+        <f>COUNTIF(VendasGerais[#All],A14)</f>
+        <v>11</v>
+      </c>
+      <c r="B15" s="13">
+        <f>COUNTIF(VendasGerais[#All],B14)</f>
+        <v>32</v>
+      </c>
+      <c r="C15" s="13">
+        <f>COUNTIF(VendasGerais[#All],C14)</f>
+        <v>50</v>
+      </c>
       <c r="I15" s="7" t="s">
         <v>19</v>
       </c>
@@ -3171,7 +3182,10 @@
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="12">
+        <f>SUMIF(VendasGerais[Cidade],A19,VendasGerais[Vendas])</f>
+        <v>11671.959969231488</v>
+      </c>
       <c r="K19" s="7" t="s">
         <v>51</v>
       </c>
@@ -3183,7 +3197,10 @@
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="12">
+        <f>SUMIF(VendasGerais[Cidade],A20,VendasGerais[Vendas])</f>
+        <v>4079.8399997338647</v>
+      </c>
       <c r="M20" s="7" t="s">
         <v>35</v>
       </c>
@@ -3192,7 +3209,10 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="12">
+        <f>SUMIF(VendasGerais[Cidade],A21,VendasGerais[Vendas])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -3206,19 +3226,28 @@
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="12">
+        <f>AVERAGEIF(VendasGerais[Cidade],A24,VendasGerais[Vendas])</f>
+        <v>555.80761758245183</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="12">
+        <f>AVERAGEIF(VendasGerais[Cidade],A25,VendasGerais[Vendas])</f>
+        <v>254.98999998336654</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="e">
+        <f>AVERAGEIF(VendasGerais[Cidade],A26,VendasGerais[Vendas])</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
